--- a/trunk/Workshop 1/List of working assumptions_Saravanan.xlsx
+++ b/trunk/Workshop 1/List of working assumptions_Saravanan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MtechEA\Workshop 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="h.gjdgxs" localSheetId="0">Sheet1!$A$3</definedName>
+    <definedName name="h.gjdgxs" localSheetId="0">Sheet1!$B$3</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="79">
   <si>
     <t>Reference Point</t>
   </si>
@@ -332,12 +337,18 @@
   <si>
     <t>24 X 7 - internet infrastructure available.</t>
   </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -415,12 +426,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -467,7 +493,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,9 +525,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,6 +560,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,452 +736,529 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="66.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="17.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="3" t="s">
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="9"/>
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:8" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B22:B24"/>
     <mergeCell ref="D22:D24"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1161,24 +1266,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
